--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Flt4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H2">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1797318235665</v>
+        <v>11.68075</v>
       </c>
       <c r="N2">
-        <v>10.1797318235665</v>
+        <v>35.04225</v>
       </c>
       <c r="O2">
-        <v>0.9716303590311141</v>
+        <v>0.9587437520473568</v>
       </c>
       <c r="P2">
-        <v>0.9716303590311141</v>
+        <v>0.9587437520473567</v>
       </c>
       <c r="Q2">
-        <v>23.44676727402546</v>
+        <v>31.10949332474999</v>
       </c>
       <c r="R2">
-        <v>23.44676727402546</v>
+        <v>279.98543992275</v>
       </c>
       <c r="S2">
-        <v>0.3519141106608722</v>
+        <v>0.3637767788792514</v>
       </c>
       <c r="T2">
-        <v>0.3519141106608722</v>
+        <v>0.3637767788792514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H3">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.145148996524761</v>
+        <v>0.163766</v>
       </c>
       <c r="N3">
-        <v>0.145148996524761</v>
+        <v>0.491298</v>
       </c>
       <c r="O3">
-        <v>0.01385411463196569</v>
+        <v>0.01344174212253387</v>
       </c>
       <c r="P3">
-        <v>0.01385411463196569</v>
+        <v>0.01344174212253387</v>
       </c>
       <c r="Q3">
-        <v>0.3343187031406543</v>
+        <v>0.436160116758</v>
       </c>
       <c r="R3">
-        <v>0.3343187031406543</v>
+        <v>3.925441050822001</v>
       </c>
       <c r="S3">
-        <v>0.00501781195326551</v>
+        <v>0.005100209144955545</v>
       </c>
       <c r="T3">
-        <v>0.00501781195326551</v>
+        <v>0.005100209144955545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H4">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.152078580104385</v>
+        <v>0.046993</v>
       </c>
       <c r="N4">
-        <v>0.152078580104385</v>
+        <v>0.140979</v>
       </c>
       <c r="O4">
-        <v>0.01451552633692034</v>
+        <v>0.003857136326003163</v>
       </c>
       <c r="P4">
-        <v>0.01451552633692034</v>
+        <v>0.003857136326003163</v>
       </c>
       <c r="Q4">
-        <v>0.350279470704414</v>
+        <v>0.125157067809</v>
       </c>
       <c r="R4">
-        <v>0.350279470704414</v>
+        <v>1.126413610281</v>
       </c>
       <c r="S4">
-        <v>0.005257368189612333</v>
+        <v>0.00146351579906022</v>
       </c>
       <c r="T4">
-        <v>0.005257368189612333</v>
+        <v>0.00146351579906022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.15585312321077</v>
+        <v>2.663313</v>
       </c>
       <c r="H5">
-        <v>3.15585312321077</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I5">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J5">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.1797318235665</v>
+        <v>0.07763399999999999</v>
       </c>
       <c r="N5">
-        <v>10.1797318235665</v>
+        <v>0.232902</v>
       </c>
       <c r="O5">
-        <v>0.9716303590311141</v>
+        <v>0.006372117582042636</v>
       </c>
       <c r="P5">
-        <v>0.9716303590311141</v>
+        <v>0.006372117582042635</v>
       </c>
       <c r="Q5">
-        <v>32.12573846885041</v>
+        <v>0.206763641442</v>
       </c>
       <c r="R5">
-        <v>32.12573846885041</v>
+        <v>1.860872772978</v>
       </c>
       <c r="S5">
-        <v>0.4821773744098872</v>
+        <v>0.002417776808125489</v>
       </c>
       <c r="T5">
-        <v>0.4821773744098872</v>
+        <v>0.002417776808125489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.15585312321077</v>
+        <v>2.663313</v>
       </c>
       <c r="H6">
-        <v>3.15585312321077</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I6">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J6">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.145148996524761</v>
+        <v>0.214248</v>
       </c>
       <c r="N6">
-        <v>0.145148996524761</v>
+        <v>0.642744</v>
       </c>
       <c r="O6">
-        <v>0.01385411463196569</v>
+        <v>0.01758525192206341</v>
       </c>
       <c r="P6">
-        <v>0.01385411463196569</v>
+        <v>0.0175852519220634</v>
       </c>
       <c r="Q6">
-        <v>0.4580689140135762</v>
+        <v>0.570609483624</v>
       </c>
       <c r="R6">
-        <v>0.4580689140135762</v>
+        <v>5.135485352616</v>
       </c>
       <c r="S6">
-        <v>0.006875187210778479</v>
+        <v>0.006672383821357521</v>
       </c>
       <c r="T6">
-        <v>0.006875187210778479</v>
+        <v>0.00667238382135752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H7">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I7">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J7">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.152078580104385</v>
+        <v>11.68075</v>
       </c>
       <c r="N7">
-        <v>0.152078580104385</v>
+        <v>35.04225</v>
       </c>
       <c r="O7">
-        <v>0.01451552633692034</v>
+        <v>0.9587437520473568</v>
       </c>
       <c r="P7">
-        <v>0.01451552633692034</v>
+        <v>0.9587437520473567</v>
       </c>
       <c r="Q7">
-        <v>0.4799376619958827</v>
+        <v>37.12879794683333</v>
       </c>
       <c r="R7">
-        <v>0.4799376619958827</v>
+        <v>334.1591815215</v>
       </c>
       <c r="S7">
-        <v>0.007203416723509035</v>
+        <v>0.4341631147689587</v>
       </c>
       <c r="T7">
-        <v>0.007203416723509035</v>
+        <v>0.4341631147689587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.900192559806218</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>0.900192559806218</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J8">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.1797318235665</v>
+        <v>0.163766</v>
       </c>
       <c r="N8">
-        <v>10.1797318235665</v>
+        <v>0.491298</v>
       </c>
       <c r="O8">
-        <v>0.9716303590311141</v>
+        <v>0.01344174212253387</v>
       </c>
       <c r="P8">
-        <v>0.9716303590311141</v>
+        <v>0.01344174212253387</v>
       </c>
       <c r="Q8">
-        <v>9.163718848397147</v>
+        <v>0.5205517389346667</v>
       </c>
       <c r="R8">
-        <v>9.163718848397147</v>
+        <v>4.684965650412001</v>
       </c>
       <c r="S8">
-        <v>0.1375388739603546</v>
+        <v>0.006087036932838501</v>
       </c>
       <c r="T8">
-        <v>0.1375388739603546</v>
+        <v>0.006087036932838501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.900192559806218</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>0.900192559806218</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J9">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.145148996524761</v>
+        <v>0.046993</v>
       </c>
       <c r="N9">
-        <v>0.145148996524761</v>
+        <v>0.140979</v>
       </c>
       <c r="O9">
-        <v>0.01385411463196569</v>
+        <v>0.003857136326003163</v>
       </c>
       <c r="P9">
-        <v>0.01385411463196569</v>
+        <v>0.003857136326003163</v>
       </c>
       <c r="Q9">
-        <v>0.1306620467349284</v>
+        <v>0.1493734222473334</v>
       </c>
       <c r="R9">
-        <v>0.1306620467349284</v>
+        <v>1.344360800226</v>
       </c>
       <c r="S9">
-        <v>0.001961115467921702</v>
+        <v>0.001746688119541783</v>
       </c>
       <c r="T9">
-        <v>0.001961115467921702</v>
+        <v>0.001746688119541783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1021,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.178631333333334</v>
+      </c>
+      <c r="H10">
+        <v>9.535894000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4528458348143826</v>
+      </c>
+      <c r="J10">
+        <v>0.4528458348143827</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07763399999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.232902</v>
+      </c>
+      <c r="O10">
+        <v>0.006372117582042636</v>
+      </c>
+      <c r="P10">
+        <v>0.006372117582042635</v>
+      </c>
+      <c r="Q10">
+        <v>0.246769864932</v>
+      </c>
+      <c r="R10">
+        <v>2.220928784388</v>
+      </c>
+      <c r="S10">
+        <v>0.002885586905975502</v>
+      </c>
+      <c r="T10">
+        <v>0.002885586905975502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="H10">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="I10">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="J10">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.152078580104385</v>
-      </c>
-      <c r="N10">
-        <v>0.152078580104385</v>
-      </c>
-      <c r="O10">
-        <v>0.01451552633692034</v>
-      </c>
-      <c r="P10">
-        <v>0.01451552633692034</v>
-      </c>
-      <c r="Q10">
-        <v>0.1369000063158613</v>
-      </c>
-      <c r="R10">
-        <v>0.1369000063158613</v>
-      </c>
-      <c r="S10">
-        <v>0.002054741423798969</v>
-      </c>
-      <c r="T10">
-        <v>0.002054741423798969</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.178631333333334</v>
+      </c>
+      <c r="H11">
+        <v>9.535894000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4528458348143826</v>
+      </c>
+      <c r="J11">
+        <v>0.4528458348143827</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.214248</v>
+      </c>
+      <c r="N11">
+        <v>0.642744</v>
+      </c>
+      <c r="O11">
+        <v>0.01758525192206341</v>
+      </c>
+      <c r="P11">
+        <v>0.0175852519220634</v>
+      </c>
+      <c r="Q11">
+        <v>0.681015405904</v>
+      </c>
+      <c r="R11">
+        <v>6.129138653136001</v>
+      </c>
+      <c r="S11">
+        <v>0.00796340808706803</v>
+      </c>
+      <c r="T11">
+        <v>0.00796340808706803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.531872</v>
+      </c>
+      <c r="I12">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J12">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.68075</v>
+      </c>
+      <c r="N12">
+        <v>35.04225</v>
+      </c>
+      <c r="O12">
+        <v>0.9587437520473568</v>
+      </c>
+      <c r="P12">
+        <v>0.9587437520473567</v>
+      </c>
+      <c r="Q12">
+        <v>13.75163795466666</v>
+      </c>
+      <c r="R12">
+        <v>123.764741592</v>
+      </c>
+      <c r="S12">
+        <v>0.1608038583991466</v>
+      </c>
+      <c r="T12">
+        <v>0.1608038583991466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.531872</v>
+      </c>
+      <c r="I13">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J13">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.163766</v>
+      </c>
+      <c r="N13">
+        <v>0.491298</v>
+      </c>
+      <c r="O13">
+        <v>0.01344174212253387</v>
+      </c>
+      <c r="P13">
+        <v>0.01344174212253387</v>
+      </c>
+      <c r="Q13">
+        <v>0.1928001833173333</v>
+      </c>
+      <c r="R13">
+        <v>1.735201649856</v>
+      </c>
+      <c r="S13">
+        <v>0.00225449604473982</v>
+      </c>
+      <c r="T13">
+        <v>0.00225449604473982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.531872</v>
+      </c>
+      <c r="I14">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J14">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.046993</v>
+      </c>
+      <c r="N14">
+        <v>0.140979</v>
+      </c>
+      <c r="O14">
+        <v>0.003857136326003163</v>
+      </c>
+      <c r="P14">
+        <v>0.003857136326003163</v>
+      </c>
+      <c r="Q14">
+        <v>0.05532442029866667</v>
+      </c>
+      <c r="R14">
+        <v>0.497919782688</v>
+      </c>
+      <c r="S14">
+        <v>0.00064693240740116</v>
+      </c>
+      <c r="T14">
+        <v>0.0006469324074011598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.531872</v>
+      </c>
+      <c r="I15">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J15">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07763399999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.232902</v>
+      </c>
+      <c r="O15">
+        <v>0.006372117582042636</v>
+      </c>
+      <c r="P15">
+        <v>0.006372117582042635</v>
+      </c>
+      <c r="Q15">
+        <v>0.091397783616</v>
+      </c>
+      <c r="R15">
+        <v>0.822580052544</v>
+      </c>
+      <c r="S15">
+        <v>0.001068753867941643</v>
+      </c>
+      <c r="T15">
+        <v>0.001068753867941643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.531872</v>
+      </c>
+      <c r="I16">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J16">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.214248</v>
+      </c>
+      <c r="N16">
+        <v>0.642744</v>
+      </c>
+      <c r="O16">
+        <v>0.01758525192206341</v>
+      </c>
+      <c r="P16">
+        <v>0.0175852519220634</v>
+      </c>
+      <c r="Q16">
+        <v>0.252232170752</v>
+      </c>
+      <c r="R16">
+        <v>2.270089536768</v>
+      </c>
+      <c r="S16">
+        <v>0.002949460013637855</v>
+      </c>
+      <c r="T16">
+        <v>0.002949460013637854</v>
       </c>
     </row>
   </sheetData>
